--- a/Web_Design_Notes.xlsx
+++ b/Web_Design_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\Web-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C839A72-EEF9-4C8B-9A7D-FAF934B88B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE4BE0-D856-401B-939E-3A35117267D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -973,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD914E-ADF1-4855-87FD-6EC5C1B8A94B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8C715E-7380-4F21-8375-1FA77C88745B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>

--- a/Web_Design_Notes.xlsx
+++ b/Web_Design_Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\Web-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE4BE0-D856-401B-939E-3A35117267D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E5EAA-B53A-474D-A87B-D19B8CCE7951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Landing pg</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Activity 11 - 6</t>
+  </si>
+  <si>
+    <t>Max_Temp</t>
+  </si>
+  <si>
+    <t>As expected, the weather becomes significantly warmer as one approaches the equator (0 Deg. Latitude).  More interestingly, however is the fact that the southern hemisphere tends to be warmer this time of the year than the northern hemisphere.  This may be due tot he tilt of the earth at the time of the year the data was gathered.</t>
   </si>
 </sst>
 </file>
@@ -103,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,8 +329,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>75786</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>37326</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>113526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -971,14 +980,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD914E-ADF1-4855-87FD-6EC5C1B8A94B}">
-  <dimension ref="A1"/>
+  <dimension ref="B29:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C30" sqref="C30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C30:K30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Web_Design_Notes.xlsx
+++ b/Web_Design_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\Web-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E5EAA-B53A-474D-A87B-D19B8CCE7951}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554730A7-7BD1-4136-BAEC-C98D897FF2E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Landing pg</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>As expected, the weather becomes significantly warmer as one approaches the equator (0 Deg. Latitude).  More interestingly, however is the fact that the southern hemisphere tends to be warmer this time of the year than the northern hemisphere.  This may be due tot he tilt of the earth at the time of the year the data was gathered.</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>The plots within the graph reflect very little difference between the cities in the northern and southern hemisphere.</t>
+  </si>
+  <si>
+    <t>Cloudiness</t>
   </si>
 </sst>
 </file>
@@ -896,7 +905,7 @@
   <dimension ref="G6:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -980,10 +989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD914E-ADF1-4855-87FD-6EC5C1B8A94B}">
-  <dimension ref="B29:K30"/>
+  <dimension ref="B29:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1006,9 +1015,33 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1034,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E12DBB-F6BE-4EE0-AF46-1856FB1B89FC}">
   <dimension ref="S1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Web_Design_Notes.xlsx
+++ b/Web_Design_Notes.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\Web-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554730A7-7BD1-4136-BAEC-C98D897FF2E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A3D9-255D-4A4F-A56A-0001177FF18C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Pg 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Pg 2 - 5" sheetId="2" r:id="rId3"/>
-    <sheet name="Pg 6" sheetId="4" r:id="rId4"/>
-    <sheet name="Pg 7" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Pg 2 - 5" sheetId="2" r:id="rId4"/>
+    <sheet name="Pg 6" sheetId="4" r:id="rId5"/>
+    <sheet name="Pg 7" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -286,6 +287,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>103009</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63060DEF-5A11-47BB-A4B1-5F72DB12CC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1300163"/>
+          <a:ext cx="14123809" cy="7333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -375,7 +425,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -468,7 +518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -908,34 +958,34 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="7:7" x14ac:dyDescent="0.75">
       <c r="G11" t="s">
         <v>5</v>
       </c>
@@ -954,29 +1004,29 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="9:9" x14ac:dyDescent="0.75">
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="9:9" x14ac:dyDescent="0.75">
       <c r="I4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="9:9" x14ac:dyDescent="0.75">
       <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -988,6 +1038,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166FA2F9-817B-486E-9686-D94AD4162303}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD914E-ADF1-4855-87FD-6EC5C1B8A94B}">
   <dimension ref="B29:K35"/>
   <sheetViews>
@@ -995,14 +1060,14 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1015,12 +1080,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1098,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8C715E-7380-4F21-8375-1FA77C88745B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1056,29 +1121,29 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E12DBB-F6BE-4EE0-AF46-1856FB1B89FC}">
   <dimension ref="S1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="19:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="19:19" x14ac:dyDescent="0.75">
       <c r="S1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="19:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="19:19" x14ac:dyDescent="0.75">
       <c r="S2" t="s">
         <v>6</v>
       </c>

--- a/Web_Design_Notes.xlsx
+++ b/Web_Design_Notes.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Conway\OneDrive\Documents\01 DU Bootcamp\Web-Design-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327A3D9-255D-4A4F-A56A-0001177FF18C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20F45E2-7B09-42BD-A832-9168B040176E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
+    <workbookView xWindow="53295" yWindow="855" windowWidth="16110" windowHeight="13380" activeTab="2" xr2:uid="{DBF967CC-8DC9-4E66-A177-9F4E69930872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Pg 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Pg 2 - 5" sheetId="2" r:id="rId4"/>
-    <sheet name="Pg 6" sheetId="4" r:id="rId5"/>
-    <sheet name="Pg 7" sheetId="5" r:id="rId6"/>
+    <sheet name="Pg 2 - 5" sheetId="2" r:id="rId3"/>
+    <sheet name="Pg 6" sheetId="4" r:id="rId4"/>
+    <sheet name="Pg 7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -287,55 +286,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>103009</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63060DEF-5A11-47BB-A4B1-5F72DB12CC73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="1300163"/>
-          <a:ext cx="14123809" cy="7333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -425,7 +375,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -518,7 +468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -958,34 +908,34 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G11" t="s">
         <v>5</v>
       </c>
@@ -1004,29 +954,29 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1038,36 +988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166FA2F9-817B-486E-9686-D94AD4162303}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDD914E-ADF1-4855-87FD-6EC5C1B8A94B}">
   <dimension ref="B29:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,12 +1015,12 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1033,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1113,7 +1048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8C715E-7380-4F21-8375-1FA77C88745B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1121,14 +1056,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E12DBB-F6BE-4EE0-AF46-1856FB1B89FC}">
   <dimension ref="S1:S2"/>
   <sheetViews>
@@ -1136,14 +1071,14 @@
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="19:19" x14ac:dyDescent="0.75">
+    <row r="1" spans="19:19" x14ac:dyDescent="0.45">
       <c r="S1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="19:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="19:19" x14ac:dyDescent="0.45">
       <c r="S2" t="s">
         <v>6</v>
       </c>
